--- a/biology/Botanique/Magnolia_étoilé/Magnolia_étoilé.xlsx
+++ b/biology/Botanique/Magnolia_étoilé/Magnolia_étoilé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A9toil%C3%A9</t>
+          <t>Magnolia_étoilé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia stellata
 Le Magnolia étoilé, Magnolia stellata, est une espèce de plantes à fleurs de la famille des Magnoliaceae. C'est un arbuste à floraison printanière originaire du Japon.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A9toil%C3%A9</t>
+          <t>Magnolia_étoilé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste mesure de 4 à 6 m de haut comme de large à maturité. Les jeunes arbres affichent une croissance ovale verticale, mais s'arrondissent avec l'âge.
 Les fleurs de 7-10 cm en forme d'étoile, avec au moins 12 fins, délicats pétales sont légèrement parfumées et couvrent la plante nue à la fin de l'hiver ou au début du printemps, avant l'apparition des feuilles. Il existe une variation naturelle dans la couleur de la fleur, qui varie du blanc au rose riche; la teinte de rose change également d'année en année, selon la luminosité et la température de la nuit avant et pendant la floraison.
@@ -521,8 +535,6 @@
 Ces magnolias donnent des fruits d'environ 5 cm de long qui s'ouvrent en début d'automne. Le fruit mûr s'ouvre par des fentes pour révéler des graines rouge-orange, mais les fruits tombent souvent avant de se développer pleinement.
 Les jeunes rameaux ont une écorce brune, tandis que le troncs a une écorce lisse gris argenté.
 Ces plantes ont des racines charnues épaisses, qui se trouvent assez près de la surface et ne tolèrent pas beaucoup de perturbation.
-Confusions possibles
-Différentes espèces de Magnolias se ressemblent. On peut parfois les différencier par le nombre de tépales sur les fleurs. Magnolia stellata a de 13 à 33 tépales, Magnolia × loebneri 11-16, Magnolia kobus 9-12, Magnolia x kewensis 9.
 </t>
         </is>
       </c>
@@ -533,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A9toil%C3%A9</t>
+          <t>Magnolia_étoilé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +560,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes espèces de Magnolias se ressemblent. On peut parfois les différencier par le nombre de tépales sur les fleurs. Magnolia stellata a de 13 à 33 tépales, Magnolia × loebneri 11-16, Magnolia kobus 9-12, Magnolia x kewensis 9.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magnolia_étoilé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnolia_%C3%A9toil%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Après avoir été introduit dans les années 1860 aux États-Unis, cette espèce a été largement cultivée en Amérique du Nord, et a été enregistrée comme une plante invasive dans certains endroits. C'est également un arbuste ornemental couramment cultivé en Europe. Il a été introduit au Royaume-Uni en 1877 ou 1878, probablement par Charles Maries.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été introduit dans les années 1860 aux États-Unis, cette espèce a été largement cultivée en Amérique du Nord, et a été enregistrée comme une plante invasive dans certains endroits. C'est également un arbuste ornemental couramment cultivé en Europe. Il a été introduit au Royaume-Uni en 1877 ou 1878, probablement par Charles Maries.
 Les gelées printanières peuvent endommager les fleurs. L'arbuste préfère un sol lourd, profond et acide et une exposition à mi-ombre.
 Il peut être multiplié par semis, ou plus facilement par l'enracinement de boutures prises après que les bourgeons floraux soient formés.
-Cultivars
-Centennial Blush, gros buisson ou petit arbre à fleurs roses parfumées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Magnolia_étoilé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnolia_%C3%A9toil%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Centennial Blush, gros buisson ou petit arbre à fleurs roses parfumées
 Kikuzaki, petit arbuste à floraison précoce
 Keiskei, à fleurs pourpres sur les bords
 Rosea, à fleurs rose pâle
